--- a/pearson_tables/t2m_netherlands-3-7.xlsx
+++ b/pearson_tables/t2m_netherlands-3-7.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7485965000344754</v>
+        <v>0.7446105873521773</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6151786871644045</v>
+        <v>0.6085072646245111</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.57428843214486</v>
+        <v>-0.57049515031306</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7286333614511428</v>
+        <v>0.7122635255421865</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6887643503377755</v>
+        <v>-0.7132032837917984</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6971765690623728</v>
+        <v>0.629619077900694</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7588268988171145</v>
+        <v>0.7392183375353897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7289358391803011</v>
+        <v>0.714741607648563</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7872371721107805</v>
+        <v>-0.8246507296936757</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7597535297971032</v>
+        <v>0.7469248575295034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6232935786196013</v>
+        <v>-0.6347582799799147</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8262836872529929</v>
+        <v>-0.8196024610864064</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6985213445311662</v>
+        <v>0.6857279732129107</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6820209060967513</v>
+        <v>-0.6055451143102873</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7434068387201392</v>
+        <v>-0.7428956286176914</v>
       </c>
     </row>
     <row r="7">
@@ -538,10 +538,10 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.6012166960910166</v>
+        <v>0.5633557605361711</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5146214614787822</v>
+        <v>0.5146089570365168</v>
       </c>
     </row>
     <row r="8">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6005293828391763</v>
+        <v>0.5981877440692995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6996309663967046</v>
+        <v>0.6691189131641496</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
@@ -566,10 +566,10 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.5457607011282076</v>
+        <v>0.6650386990886288</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6583609298899145</v>
+        <v>0.6590298530350931</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-7.xlsx
+++ b/pearson_tables/t2m_netherlands-3-7.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7446105873521773</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6085072646245111</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.57049515031306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7122635255421865</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7132032837917984</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.629619077900694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7392183375353897</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.714741607648563</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8246507296936757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7469248575295034</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6347582799799147</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8196024610864064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6857279732129107</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6055451143102873</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7428956286176914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -536,12 +536,14 @@
           <t>EA_P</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.5633557605361711</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5146089570365168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -551,12 +553,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5981877440692995</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6691189131641496</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -564,12 +568,14 @@
           <t>NAO_P</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
       <c r="C9" t="n">
-        <v>0.6650386990886288</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6590298530350931</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
